--- a/HS402/BOM/HS402_Component_List_V2.1.xlsx
+++ b/HS402/BOM/HS402_Component_List_V2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25485" windowHeight="12705"/>
+    <workbookView windowWidth="20328" windowHeight="9035"/>
   </bookViews>
   <sheets>
     <sheet name="HS4023" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>REF2033</t>
   </si>
   <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
     <t>SOT23-5</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Header 5</t>
+  </si>
+  <si>
+    <t>Header, 5-Pin</t>
   </si>
   <si>
     <t>HDR1X5</t>
@@ -332,10 +332,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -377,6 +377,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -385,111 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,24 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,25 +554,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,157 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,11 +763,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,38 +826,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,30 +860,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -868,10 +868,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -880,133 +880,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,20 +1394,20 @@
   </sheetPr>
   <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:G32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="14.8833333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.8833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.8833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.8796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.8796296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.8796296296296" style="2" customWidth="1"/>
     <col min="7" max="7" width="30.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="3.88333333333333" customWidth="1"/>
+    <col min="8" max="8" width="3.87962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="49" customHeight="1" spans="2:7">
@@ -1420,7 +1420,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="17.25" spans="2:7">
+    <row r="3" ht="19.2" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:7">
+    <row r="6" ht="15" spans="2:7">
       <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="2:7">
+    <row r="7" customFormat="1" ht="15" spans="2:7">
       <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:7">
+    <row r="8" ht="15" spans="2:7">
       <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:7">
+    <row r="9" ht="15" spans="2:7">
       <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:7">
+    <row r="10" ht="15" spans="2:7">
       <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:7">
+    <row r="11" ht="15" spans="2:7">
       <c r="B11" s="16" t="s">
         <v>23</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="2:7">
+    <row r="12" ht="30" spans="2:7">
       <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:7">
+    <row r="13" ht="15" spans="2:7">
       <c r="B13" s="16" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="2:7">
+    <row r="14" ht="15" spans="2:7">
       <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:7">
+    <row r="15" ht="15" spans="2:7">
       <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="2:7">
+    <row r="16" ht="15" spans="2:7">
       <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:7">
+    <row r="17" ht="15" spans="2:7">
       <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="2:7">
+    <row r="18" ht="15" spans="2:7">
       <c r="B18" s="16" t="s">
         <v>45</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="2:7">
+    <row r="19" ht="15" spans="2:7">
       <c r="B19" s="17" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="2:7">
+    <row r="20" ht="15" spans="2:7">
       <c r="B20" s="18" t="s">
         <v>54</v>
       </c>
@@ -1741,108 +1741,108 @@
       <c r="D20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>57</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="2:7">
+    <row r="21" ht="30" spans="2:7">
       <c r="B21" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="2:7">
+    <row r="22" ht="30" spans="2:7">
       <c r="B22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="8" t="s">
+    </row>
+    <row r="23" ht="15" spans="2:7">
+      <c r="B23" s="16" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="2:7">
-      <c r="B23" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="C23" s="8">
         <v>2</v>
       </c>
       <c r="D23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="2:7">
+    <row r="24" ht="30" spans="2:7">
       <c r="B24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
       <c r="D24" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="18" t="s">
+    </row>
+    <row r="25" ht="15" spans="2:7">
+      <c r="B25" s="16" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="2:7">
-      <c r="B25" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>77</v>
@@ -1851,7 +1851,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="2:7">
+    <row r="26" ht="15" spans="2:7">
       <c r="B26" s="16" t="s">
         <v>79</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="2:7">
+    <row r="27" customFormat="1" ht="15" spans="2:7">
       <c r="B27" s="8" t="s">
         <v>84</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="2:7">
+    <row r="28" ht="15" spans="2:7">
       <c r="B28" s="16" t="s">
         <v>89</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="2:7">
+    <row r="30" ht="15" spans="2:7">
       <c r="B30" s="12" t="s">
         <v>91</v>
       </c>
@@ -1921,7 +1921,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="2:7">
+    <row r="31" customFormat="1" ht="15" spans="2:7">
       <c r="B31" s="13" t="s">
         <v>92</v>
       </c>
@@ -1931,7 +1931,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="2:7">
+    <row r="32" customFormat="1" ht="15" spans="2:7">
       <c r="B32" s="13" t="s">
         <v>93</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" ht="14.25" spans="2:7">
+    <row r="33" ht="15" spans="2:7">
       <c r="B33" s="13" t="s">
         <v>94</v>
       </c>
